--- a/bin/Debug/net8.0-windows/Files/Tonghopquy.xlsx
+++ b/bin/Debug/net8.0-windows/Files/Tonghopquy.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Viettel\Viettel_Report_Automation\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A2C018-6E1A-4D83-B609-9F86DF651E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038E791B-36FB-4CE7-BBEC-AAB1A001491B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{DC4FF3CA-F5B3-428F-9F7C-B436B672B428}"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="4" xr2:uid="{DC4FF3CA-F5B3-428F-9F7C-B436B672B428}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Quy I" sheetId="1" r:id="rId1"/>
     <x:sheet name="Quy II" sheetId="2" r:id="rId2"/>
     <x:sheet name="Quy III" sheetId="3" r:id="rId3"/>
     <x:sheet name="Quy IV" sheetId="4" r:id="rId4"/>
+    <x:sheet name="Nam" sheetId="5" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="181029"/>
@@ -70,15 +71,6 @@
     <x:t>Thang 9</x:t>
   </x:si>
   <x:si>
-    <x:t>Thang 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thang 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thang 12</x:t>
-  </x:si>
-  <x:si>
     <x:t>TrienkhaiBTS</x:t>
   </x:si>
   <x:si>
@@ -302,6 +294,30 @@
   <x:si>
     <x:t>CaitaothuchiencaitaonhađatMPĐphucvulapđatMPĐdautheoCV
 so2728/VHKTTC-CĐ(đambaocactramlapđatMPĐdautheoKH6895)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thang 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thang 11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thang 12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quý I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quý II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quý III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quý IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tỏng</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -311,13 +327,19 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
+  <x:fonts count="3" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
       <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Times New Roman"/>
+      <x:family val="1"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
@@ -327,7 +349,7 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="4">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -337,6 +359,12 @@
     <x:fill>
       <x:patternFill patternType="solid">
         <x:fgColor theme="5" tint="0.59999389629810485"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor theme="5" tint="0.39997558519241921"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -391,7 +419,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="5">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -402,8 +430,11 @@
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
@@ -420,6 +451,12 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -439,6 +476,10 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -759,7 +800,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:I98"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="H3" sqref="H3 H3:I98"/>
     </x:sheetView>
   </x:sheetViews>
@@ -776,50 +817,50 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="8" t="s">
+      <x:c r="A1" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="10" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="8"/>
-      <x:c r="D1" s="8" t="s">
+      <x:c r="C1" s="10"/>
+      <x:c r="D1" s="10" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E1" s="8"/>
-      <x:c r="F1" s="8" t="s">
+      <x:c r="E1" s="10"/>
+      <x:c r="F1" s="10" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G1" s="8"/>
-      <x:c r="H1" s="8" t="s">
+      <x:c r="G1" s="10"/>
+      <x:c r="H1" s="10" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="I1" s="8"/>
+      <x:c r="I1" s="10"/>
     </x:row>
     <x:row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="7"/>
-      <x:c r="B2" s="8" t="s">
+      <x:c r="A2" s="9"/>
+      <x:c r="B2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="8" t="s">
+      <x:c r="C2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="8" t="s">
+      <x:c r="D2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E2" s="8" t="s">
+      <x:c r="E2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F2" s="8" t="s">
+      <x:c r="F2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G2" s="8" t="s">
+      <x:c r="G2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H2" s="9" t="s">
+      <x:c r="H2" s="11" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="8" t="s">
+      <x:c r="I2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -954,50 +995,50 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="10" t="s">
+      <x:c r="A1" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C1" s="11"/>
-      <x:c r="D1" s="10" t="s">
+      <x:c r="C1" s="13"/>
+      <x:c r="D1" s="12" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E1" s="11"/>
-      <x:c r="F1" s="10" t="s">
+      <x:c r="E1" s="13"/>
+      <x:c r="F1" s="12" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G1" s="11"/>
-      <x:c r="H1" s="8" t="s">
+      <x:c r="G1" s="13"/>
+      <x:c r="H1" s="10" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="I1" s="8"/>
+      <x:c r="I1" s="10"/>
     </x:row>
     <x:row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="7"/>
-      <x:c r="B2" s="8" t="s">
+      <x:c r="A2" s="9"/>
+      <x:c r="B2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="8" t="s">
+      <x:c r="C2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="8" t="s">
+      <x:c r="D2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E2" s="8" t="s">
+      <x:c r="E2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F2" s="8" t="s">
+      <x:c r="F2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G2" s="8" t="s">
+      <x:c r="G2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H2" s="9" t="s">
+      <x:c r="H2" s="11" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="8" t="s">
+      <x:c r="I2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -1136,56 +1177,56 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="10" t="s">
+      <x:c r="A1" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="12" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C1" s="11"/>
-      <x:c r="D1" s="10" t="s">
+      <x:c r="C1" s="13"/>
+      <x:c r="D1" s="12" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="E1" s="11"/>
-      <x:c r="F1" s="10" t="s">
+      <x:c r="E1" s="13"/>
+      <x:c r="F1" s="12" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="G1" s="11"/>
-      <x:c r="H1" s="8" t="s">
+      <x:c r="G1" s="13"/>
+      <x:c r="H1" s="10" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="I1" s="8"/>
+      <x:c r="I1" s="10"/>
     </x:row>
     <x:row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="7"/>
-      <x:c r="B2" s="8" t="s">
+      <x:c r="A2" s="9"/>
+      <x:c r="B2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="8" t="s">
+      <x:c r="C2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="8" t="s">
+      <x:c r="D2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E2" s="8" t="s">
+      <x:c r="E2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F2" s="8" t="s">
+      <x:c r="F2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G2" s="8" t="s">
+      <x:c r="G2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H2" s="9" t="s">
+      <x:c r="H2" s="11" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="8" t="s">
+      <x:c r="I2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B3" s="0">
         <x:v>0</x:v>
@@ -1202,7 +1243,7 @@
     </x:row>
     <x:row r="4" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B4" s="0">
         <x:v>18</x:v>
@@ -1219,7 +1260,7 @@
     </x:row>
     <x:row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B5" s="0">
         <x:v>27</x:v>
@@ -1236,7 +1277,7 @@
     </x:row>
     <x:row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B6" s="0">
         <x:v>30</x:v>
@@ -1253,7 +1294,7 @@
     </x:row>
     <x:row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B7" s="0">
         <x:v>0</x:v>
@@ -1270,7 +1311,7 @@
     </x:row>
     <x:row r="8" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B8" s="0">
         <x:v>26.9</x:v>
@@ -1287,7 +1328,7 @@
     </x:row>
     <x:row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B9" s="0">
         <x:v>10</x:v>
@@ -1304,7 +1345,7 @@
     </x:row>
     <x:row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B10" s="0">
         <x:v>2.2</x:v>
@@ -1321,7 +1362,7 @@
     </x:row>
     <x:row r="11" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B11" s="0">
         <x:v>1</x:v>
@@ -1338,7 +1379,7 @@
     </x:row>
     <x:row r="12" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B12" s="0">
         <x:v>23</x:v>
@@ -1355,7 +1396,7 @@
     </x:row>
     <x:row r="13" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B13" s="0">
         <x:v>37</x:v>
@@ -1372,7 +1413,7 @@
     </x:row>
     <x:row r="14" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A14" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B14" s="0">
         <x:v>9500</x:v>
@@ -1389,7 +1430,7 @@
     </x:row>
     <x:row r="15" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B15" s="0">
         <x:v>9500</x:v>
@@ -1406,7 +1447,7 @@
     </x:row>
     <x:row r="16" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A16" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B16" s="0">
         <x:v>9500</x:v>
@@ -1423,7 +1464,7 @@
     </x:row>
     <x:row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A17" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B17" s="0">
         <x:v>0</x:v>
@@ -1440,7 +1481,7 @@
     </x:row>
     <x:row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A18" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B18" s="0">
         <x:v>1</x:v>
@@ -1457,7 +1498,7 @@
     </x:row>
     <x:row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B19" s="0">
         <x:v>6</x:v>
@@ -1474,7 +1515,7 @@
     </x:row>
     <x:row r="20" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A20" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B20" s="0">
         <x:v>35</x:v>
@@ -1491,7 +1532,7 @@
     </x:row>
     <x:row r="21" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A21" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B21" s="0">
         <x:v>9</x:v>
@@ -1508,7 +1549,7 @@
     </x:row>
     <x:row r="22" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A22" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B22" s="0">
         <x:v>25</x:v>
@@ -1525,7 +1566,7 @@
     </x:row>
     <x:row r="23" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A23" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B23" s="0">
         <x:v>20</x:v>
@@ -1542,7 +1583,7 @@
     </x:row>
     <x:row r="24" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A24" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B24" s="0">
         <x:v>14</x:v>
@@ -1559,7 +1600,7 @@
     </x:row>
     <x:row r="25" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A25" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B25" s="0">
         <x:v>0</x:v>
@@ -1576,7 +1617,7 @@
     </x:row>
     <x:row r="26" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A26" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B26" s="0">
         <x:v>51</x:v>
@@ -1593,7 +1634,7 @@
     </x:row>
     <x:row r="27" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A27" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="B27" s="0">
         <x:v>22</x:v>
@@ -1610,7 +1651,7 @@
     </x:row>
     <x:row r="28" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A28" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B28" s="0">
         <x:v>47</x:v>
@@ -1627,7 +1668,7 @@
     </x:row>
     <x:row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A29" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B29" s="0">
         <x:v>0</x:v>
@@ -1644,7 +1685,7 @@
     </x:row>
     <x:row r="30" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A30" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B30" s="0">
         <x:v>362</x:v>
@@ -1661,7 +1702,7 @@
     </x:row>
     <x:row r="31" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A31" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B31" s="0">
         <x:v>12</x:v>
@@ -1678,7 +1719,7 @@
     </x:row>
     <x:row r="32" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A32" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B32" s="0">
         <x:v>11</x:v>
@@ -1695,7 +1736,7 @@
     </x:row>
     <x:row r="33" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A33" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B33" s="0">
         <x:v>7</x:v>
@@ -1712,7 +1753,7 @@
     </x:row>
     <x:row r="34" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A34" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B34" s="0">
         <x:v>4</x:v>
@@ -1729,7 +1770,7 @@
     </x:row>
     <x:row r="35" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A35" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B35" s="0">
         <x:v>34</x:v>
@@ -1746,7 +1787,7 @@
     </x:row>
     <x:row r="36" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A36" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B36" s="0">
         <x:v>29</x:v>
@@ -1763,7 +1804,7 @@
     </x:row>
     <x:row r="37" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A37" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B37" s="0">
         <x:v>677</x:v>
@@ -1780,7 +1821,7 @@
     </x:row>
     <x:row r="38" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A38" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B38" s="0">
         <x:v>3</x:v>
@@ -1797,7 +1838,7 @@
     </x:row>
     <x:row r="39" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A39" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B39" s="0">
         <x:v>0</x:v>
@@ -1814,7 +1855,7 @@
     </x:row>
     <x:row r="40" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A40" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B40" s="0">
         <x:v>0</x:v>
@@ -1831,7 +1872,7 @@
     </x:row>
     <x:row r="41" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A41" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B41" s="0">
         <x:v>0</x:v>
@@ -1848,7 +1889,7 @@
     </x:row>
     <x:row r="42" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A42" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B42" s="0">
         <x:v>0</x:v>
@@ -1865,7 +1906,7 @@
     </x:row>
     <x:row r="43" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A43" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B43" s="0">
         <x:v>0</x:v>
@@ -1882,7 +1923,7 @@
     </x:row>
     <x:row r="44" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A44" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B44" s="0">
         <x:v>3</x:v>
@@ -1899,7 +1940,7 @@
     </x:row>
     <x:row r="45" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A45" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B45" s="0">
         <x:v>646</x:v>
@@ -1916,7 +1957,7 @@
     </x:row>
     <x:row r="46" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A46" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B46" s="0">
         <x:v>121</x:v>
@@ -1933,7 +1974,7 @@
     </x:row>
     <x:row r="47" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A47" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B47" s="0">
         <x:v>59</x:v>
@@ -1950,7 +1991,7 @@
     </x:row>
     <x:row r="48" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A48" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B48" s="0">
         <x:v>0</x:v>
@@ -1967,7 +2008,7 @@
     </x:row>
     <x:row r="49" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A49" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B49" s="0">
         <x:v>0</x:v>
@@ -1984,7 +2025,7 @@
     </x:row>
     <x:row r="50" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A50" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B50" s="0">
         <x:v>15</x:v>
@@ -2001,7 +2042,7 @@
     </x:row>
     <x:row r="51" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A51" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B51" s="0">
         <x:v>0</x:v>
@@ -2018,7 +2059,7 @@
     </x:row>
     <x:row r="52" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A52" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B52" s="0">
         <x:v>334</x:v>
@@ -2035,7 +2076,7 @@
     </x:row>
     <x:row r="53" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A53" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B53" s="0">
         <x:v>12.1</x:v>
@@ -2052,7 +2093,7 @@
     </x:row>
     <x:row r="54" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A54" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B54" s="0">
         <x:v>0</x:v>
@@ -2069,7 +2110,7 @@
     </x:row>
     <x:row r="55" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A55" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B55" s="0">
         <x:v>0</x:v>
@@ -2086,7 +2127,7 @@
     </x:row>
     <x:row r="56" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A56" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B56" s="0">
         <x:v>1</x:v>
@@ -2103,7 +2144,7 @@
     </x:row>
     <x:row r="57" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A57" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B57" s="0">
         <x:v>33</x:v>
@@ -2120,7 +2161,7 @@
     </x:row>
     <x:row r="58" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A58" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B58" s="0">
         <x:v>0</x:v>
@@ -2137,7 +2178,7 @@
     </x:row>
     <x:row r="59" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A59" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B59" s="0">
         <x:v>0</x:v>
@@ -2154,7 +2195,7 @@
     </x:row>
     <x:row r="60" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A60" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B60" s="0">
         <x:v>0</x:v>
@@ -2171,7 +2212,7 @@
     </x:row>
     <x:row r="61" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A61" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B61" s="0">
         <x:v>1</x:v>
@@ -2188,7 +2229,7 @@
     </x:row>
     <x:row r="62" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A62" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B62" s="0">
         <x:v>0</x:v>
@@ -2205,7 +2246,7 @@
     </x:row>
     <x:row r="63" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A63" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B63" s="0">
         <x:v>12</x:v>
@@ -2222,7 +2263,7 @@
     </x:row>
     <x:row r="64" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A64" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B64" s="0">
         <x:v>0</x:v>
@@ -2239,7 +2280,7 @@
     </x:row>
     <x:row r="65" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A65" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B65" s="0">
         <x:v>7</x:v>
@@ -2256,7 +2297,7 @@
     </x:row>
     <x:row r="66" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A66" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B66" s="0">
         <x:v>216</x:v>
@@ -2273,7 +2314,7 @@
     </x:row>
     <x:row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A67" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B67" s="0">
         <x:v>6</x:v>
@@ -2290,7 +2331,7 @@
     </x:row>
     <x:row r="68" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A68" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B68" s="0">
         <x:v>11</x:v>
@@ -2307,7 +2348,7 @@
     </x:row>
     <x:row r="69" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A69" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B69" s="0">
         <x:v>97</x:v>
@@ -2324,7 +2365,7 @@
     </x:row>
     <x:row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A70" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B70" s="0">
         <x:v>63</x:v>
@@ -2341,7 +2382,7 @@
     </x:row>
     <x:row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A71" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B71" s="0">
         <x:v>0</x:v>
@@ -2358,7 +2399,7 @@
     </x:row>
     <x:row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A72" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B72" s="0">
         <x:v>57</x:v>
@@ -2375,7 +2416,7 @@
     </x:row>
     <x:row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A73" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B73" s="0">
         <x:v>86</x:v>
@@ -2392,7 +2433,7 @@
     </x:row>
     <x:row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A74" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B74" s="0">
         <x:v>8</x:v>
@@ -2409,7 +2450,7 @@
     </x:row>
     <x:row r="75" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A75" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B75" s="0">
         <x:v>13</x:v>
@@ -2482,50 +2523,50 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="7" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="10" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C1" s="11"/>
-      <x:c r="D1" s="10" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E1" s="11"/>
-      <x:c r="F1" s="10" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G1" s="11"/>
-      <x:c r="H1" s="8" t="s">
+      <x:c r="A1" s="9" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="12" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C1" s="13"/>
+      <x:c r="D1" s="12" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E1" s="13"/>
+      <x:c r="F1" s="12" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="G1" s="13"/>
+      <x:c r="H1" s="10" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="I1" s="8"/>
+      <x:c r="I1" s="10"/>
     </x:row>
     <x:row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="7"/>
-      <x:c r="B2" s="8" t="s">
+      <x:c r="A2" s="9"/>
+      <x:c r="B2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C2" s="8" t="s">
+      <x:c r="C2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="D2" s="8" t="s">
+      <x:c r="D2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E2" s="8" t="s">
+      <x:c r="E2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F2" s="8" t="s">
+      <x:c r="F2" s="10" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G2" s="8" t="s">
+      <x:c r="G2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H2" s="9" t="s">
+      <x:c r="H2" s="11" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="I2" s="8" t="s">
+      <x:c r="I2" s="10" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -2543,4 +2584,1316 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{5EE663BA-9C07-43A5-A5F9-F068BBBD7BB6}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:K2"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="I3" sqref="I3"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="14" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="14" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C1" s="14"/>
+      <x:c r="D1" s="14" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E1" s="14"/>
+      <x:c r="F1" s="14" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="G1" s="14"/>
+      <x:c r="H1" s="14" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="I1" s="14"/>
+      <x:c r="J1" s="14" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="K1" s="14"/>
+    </x:row>
+    <x:row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="14"/>
+      <x:c r="B2" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E2" s="14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F2" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G2" s="14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H2" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="I2" s="14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="J2" s="14" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K2" s="14" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:11">
+      <x:c r="A3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="F3" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G3" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J3" s="0">
+        <x:f>B3+D3+F3+H3</x:f>
+      </x:c>
+      <x:c r="K3" s="0">
+        <x:f>C3+E3+G3+I3</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:11">
+      <x:c r="A4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F4" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G4" s="0">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J4" s="0">
+        <x:f>B4+D4+F4+H4</x:f>
+      </x:c>
+      <x:c r="K4" s="0">
+        <x:f>C4+E4+G4+I4</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:11">
+      <x:c r="A5" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F5" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="G5" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="J5" s="0">
+        <x:f>B5+D5+F5+H5</x:f>
+      </x:c>
+      <x:c r="K5" s="0">
+        <x:f>C5+E5+G5+I5</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F6" s="0">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G6" s="0">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J6" s="0">
+        <x:f>B6+D6+F6+H6</x:f>
+      </x:c>
+      <x:c r="K6" s="0">
+        <x:f>C6+E6+G6+I6</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F7" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G7" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J7" s="0">
+        <x:f>B7+D7+F7+H7</x:f>
+      </x:c>
+      <x:c r="K7" s="0">
+        <x:f>C7+E7+G7+I7</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:11">
+      <x:c r="A8" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F8" s="0">
+        <x:v>26.9</x:v>
+      </x:c>
+      <x:c r="G8" s="0">
+        <x:v>32.585</x:v>
+      </x:c>
+      <x:c r="J8" s="0">
+        <x:f>B8+D8+F8+H8</x:f>
+      </x:c>
+      <x:c r="K8" s="0">
+        <x:f>C8+E8+G8+I8</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:11">
+      <x:c r="A9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F9" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G9" s="0">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J9" s="0">
+        <x:f>B9+D9+F9+H9</x:f>
+      </x:c>
+      <x:c r="K9" s="0">
+        <x:f>C9+E9+G9+I9</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F10" s="0">
+        <x:v>2.2</x:v>
+      </x:c>
+      <x:c r="G10" s="0">
+        <x:v>2.4</x:v>
+      </x:c>
+      <x:c r="J10" s="0">
+        <x:f>B10+D10+F10+H10</x:f>
+      </x:c>
+      <x:c r="K10" s="0">
+        <x:f>C10+E10+G10+I10</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F11" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G11" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J11" s="0">
+        <x:f>B11+D11+F11+H11</x:f>
+      </x:c>
+      <x:c r="K11" s="0">
+        <x:f>C11+E11+G11+I11</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F12" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G12" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J12" s="0">
+        <x:f>B12+D12+F12+H12</x:f>
+      </x:c>
+      <x:c r="K12" s="0">
+        <x:f>C12+E12+G12+I12</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F13" s="0">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="G13" s="0">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J13" s="0">
+        <x:f>B13+D13+F13+H13</x:f>
+      </x:c>
+      <x:c r="K13" s="0">
+        <x:f>C13+E13+G13+I13</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F14" s="0">
+        <x:v>9500</x:v>
+      </x:c>
+      <x:c r="G14" s="0">
+        <x:v>10348</x:v>
+      </x:c>
+      <x:c r="J14" s="0">
+        <x:f>B14+D14+F14+H14</x:f>
+      </x:c>
+      <x:c r="K14" s="0">
+        <x:f>C14+E14+G14+I14</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F15" s="0">
+        <x:v>9500</x:v>
+      </x:c>
+      <x:c r="G15" s="0">
+        <x:v>10348</x:v>
+      </x:c>
+      <x:c r="J15" s="0">
+        <x:f>B15+D15+F15+H15</x:f>
+      </x:c>
+      <x:c r="K15" s="0">
+        <x:f>C15+E15+G15+I15</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F16" s="0">
+        <x:v>9500</x:v>
+      </x:c>
+      <x:c r="G16" s="0">
+        <x:v>10348</x:v>
+      </x:c>
+      <x:c r="J16" s="0">
+        <x:f>B16+D16+F16+H16</x:f>
+      </x:c>
+      <x:c r="K16" s="0">
+        <x:f>C16+E16+G16+I16</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F17" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G17" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J17" s="0">
+        <x:f>B17+D17+F17+H17</x:f>
+      </x:c>
+      <x:c r="K17" s="0">
+        <x:f>C17+E17+G17+I17</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F18" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G18" s="0">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="J18" s="0">
+        <x:f>B18+D18+F18+H18</x:f>
+      </x:c>
+      <x:c r="K18" s="0">
+        <x:f>C18+E18+G18+I18</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F19" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G19" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="J19" s="0">
+        <x:f>B19+D19+F19+H19</x:f>
+      </x:c>
+      <x:c r="K19" s="0">
+        <x:f>C19+E19+G19+I19</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:11">
+      <x:c r="A20" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F20" s="0">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G20" s="0">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="J20" s="0">
+        <x:f>B20+D20+F20+H20</x:f>
+      </x:c>
+      <x:c r="K20" s="0">
+        <x:f>C20+E20+G20+I20</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:11">
+      <x:c r="A21" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F21" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="G21" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J21" s="0">
+        <x:f>B21+D21+F21+H21</x:f>
+      </x:c>
+      <x:c r="K21" s="0">
+        <x:f>C21+E21+G21+I21</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:11">
+      <x:c r="A22" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F22" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G22" s="0">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="J22" s="0">
+        <x:f>B22+D22+F22+H22</x:f>
+      </x:c>
+      <x:c r="K22" s="0">
+        <x:f>C22+E22+G22+I22</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:11">
+      <x:c r="A23" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F23" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G23" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J23" s="0">
+        <x:f>B23+D23+F23+H23</x:f>
+      </x:c>
+      <x:c r="K23" s="0">
+        <x:f>C23+E23+G23+I23</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:11">
+      <x:c r="A24" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F24" s="0">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G24" s="0">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J24" s="0">
+        <x:f>B24+D24+F24+H24</x:f>
+      </x:c>
+      <x:c r="K24" s="0">
+        <x:f>C24+E24+G24+I24</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:11">
+      <x:c r="A25" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F25" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G25" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J25" s="0">
+        <x:f>B25+D25+F25+H25</x:f>
+      </x:c>
+      <x:c r="K25" s="0">
+        <x:f>C25+E25+G25+I25</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:11">
+      <x:c r="A26" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F26" s="0">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="G26" s="0">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="J26" s="0">
+        <x:f>B26+D26+F26+H26</x:f>
+      </x:c>
+      <x:c r="K26" s="0">
+        <x:f>C26+E26+G26+I26</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:11">
+      <x:c r="A27" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="F27" s="0">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="G27" s="0">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="J27" s="0">
+        <x:f>B27+D27+F27+H27</x:f>
+      </x:c>
+      <x:c r="K27" s="0">
+        <x:f>C27+E27+G27+I27</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:11">
+      <x:c r="A28" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="F28" s="0">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G28" s="0">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="J28" s="0">
+        <x:f>B28+D28+F28+H28</x:f>
+      </x:c>
+      <x:c r="K28" s="0">
+        <x:f>C28+E28+G28+I28</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:11">
+      <x:c r="A29" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="F29" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G29" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J29" s="0">
+        <x:f>B29+D29+F29+H29</x:f>
+      </x:c>
+      <x:c r="K29" s="0">
+        <x:f>C29+E29+G29+I29</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:11">
+      <x:c r="A30" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F30" s="0">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="G30" s="0">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="J30" s="0">
+        <x:f>B30+D30+F30+H30</x:f>
+      </x:c>
+      <x:c r="K30" s="0">
+        <x:f>C30+E30+G30+I30</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:11">
+      <x:c r="A31" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="F31" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G31" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J31" s="0">
+        <x:f>B31+D31+F31+H31</x:f>
+      </x:c>
+      <x:c r="K31" s="0">
+        <x:f>C31+E31+G31+I31</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:11">
+      <x:c r="A32" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F32" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G32" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J32" s="0">
+        <x:f>B32+D32+F32+H32</x:f>
+      </x:c>
+      <x:c r="K32" s="0">
+        <x:f>C32+E32+G32+I32</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:11">
+      <x:c r="A33" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F33" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G33" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J33" s="0">
+        <x:f>B33+D33+F33+H33</x:f>
+      </x:c>
+      <x:c r="K33" s="0">
+        <x:f>C33+E33+G33+I33</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:11">
+      <x:c r="A34" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F34" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G34" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J34" s="0">
+        <x:f>B34+D34+F34+H34</x:f>
+      </x:c>
+      <x:c r="K34" s="0">
+        <x:f>C34+E34+G34+I34</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:11">
+      <x:c r="A35" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F35" s="0">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G35" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J35" s="0">
+        <x:f>B35+D35+F35+H35</x:f>
+      </x:c>
+      <x:c r="K35" s="0">
+        <x:f>C35+E35+G35+I35</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:11">
+      <x:c r="A36" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="F36" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G36" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J36" s="0">
+        <x:f>B36+D36+F36+H36</x:f>
+      </x:c>
+      <x:c r="K36" s="0">
+        <x:f>C36+E36+G36+I36</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:11">
+      <x:c r="A37" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F37" s="0">
+        <x:v>677</x:v>
+      </x:c>
+      <x:c r="G37" s="0">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="J37" s="0">
+        <x:f>B37+D37+F37+H37</x:f>
+      </x:c>
+      <x:c r="K37" s="0">
+        <x:f>C37+E37+G37+I37</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:11">
+      <x:c r="A38" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F38" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G38" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J38" s="0">
+        <x:f>B38+D38+F38+H38</x:f>
+      </x:c>
+      <x:c r="K38" s="0">
+        <x:f>C38+E38+G38+I38</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:11">
+      <x:c r="A39" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F39" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G39" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J39" s="0">
+        <x:f>B39+D39+F39+H39</x:f>
+      </x:c>
+      <x:c r="K39" s="0">
+        <x:f>C39+E39+G39+I39</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:11">
+      <x:c r="A40" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F40" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G40" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J40" s="0">
+        <x:f>B40+D40+F40+H40</x:f>
+      </x:c>
+      <x:c r="K40" s="0">
+        <x:f>C40+E40+G40+I40</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:11">
+      <x:c r="A41" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F41" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G41" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J41" s="0">
+        <x:f>B41+D41+F41+H41</x:f>
+      </x:c>
+      <x:c r="K41" s="0">
+        <x:f>C41+E41+G41+I41</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:11">
+      <x:c r="A42" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F42" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G42" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J42" s="0">
+        <x:f>B42+D42+F42+H42</x:f>
+      </x:c>
+      <x:c r="K42" s="0">
+        <x:f>C42+E42+G42+I42</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:11">
+      <x:c r="A43" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="F43" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G43" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J43" s="0">
+        <x:f>B43+D43+F43+H43</x:f>
+      </x:c>
+      <x:c r="K43" s="0">
+        <x:f>C43+E43+G43+I43</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:11">
+      <x:c r="A44" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="F44" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G44" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J44" s="0">
+        <x:f>B44+D44+F44+H44</x:f>
+      </x:c>
+      <x:c r="K44" s="0">
+        <x:f>C44+E44+G44+I44</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:11">
+      <x:c r="A45" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="F45" s="0">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="G45" s="0">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="J45" s="0">
+        <x:f>B45+D45+F45+H45</x:f>
+      </x:c>
+      <x:c r="K45" s="0">
+        <x:f>C45+E45+G45+I45</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:11">
+      <x:c r="A46" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F46" s="0">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="G46" s="0">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J46" s="0">
+        <x:f>B46+D46+F46+H46</x:f>
+      </x:c>
+      <x:c r="K46" s="0">
+        <x:f>C46+E46+G46+I46</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:11">
+      <x:c r="A47" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F47" s="0">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G47" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J47" s="0">
+        <x:f>B47+D47+F47+H47</x:f>
+      </x:c>
+      <x:c r="K47" s="0">
+        <x:f>C47+E47+G47+I47</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:11">
+      <x:c r="A48" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="F48" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G48" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J48" s="0">
+        <x:f>B48+D48+F48+H48</x:f>
+      </x:c>
+      <x:c r="K48" s="0">
+        <x:f>C48+E48+G48+I48</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:11">
+      <x:c r="A49" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F49" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G49" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J49" s="0">
+        <x:f>B49+D49+F49+H49</x:f>
+      </x:c>
+      <x:c r="K49" s="0">
+        <x:f>C49+E49+G49+I49</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:11">
+      <x:c r="A50" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F50" s="0">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G50" s="0">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J50" s="0">
+        <x:f>B50+D50+F50+H50</x:f>
+      </x:c>
+      <x:c r="K50" s="0">
+        <x:f>C50+E50+G50+I50</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:11">
+      <x:c r="A51" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F51" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G51" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J51" s="0">
+        <x:f>B51+D51+F51+H51</x:f>
+      </x:c>
+      <x:c r="K51" s="0">
+        <x:f>C51+E51+G51+I51</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:11">
+      <x:c r="A52" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F52" s="0">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="G52" s="0">
+        <x:v>1055</x:v>
+      </x:c>
+      <x:c r="J52" s="0">
+        <x:f>B52+D52+F52+H52</x:f>
+      </x:c>
+      <x:c r="K52" s="0">
+        <x:f>C52+E52+G52+I52</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:11">
+      <x:c r="A53" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F53" s="0">
+        <x:v>12.1</x:v>
+      </x:c>
+      <x:c r="G53" s="0">
+        <x:v>23.39</x:v>
+      </x:c>
+      <x:c r="J53" s="0">
+        <x:f>B53+D53+F53+H53</x:f>
+      </x:c>
+      <x:c r="K53" s="0">
+        <x:f>C53+E53+G53+I53</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:11">
+      <x:c r="A54" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F54" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G54" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J54" s="0">
+        <x:f>B54+D54+F54+H54</x:f>
+      </x:c>
+      <x:c r="K54" s="0">
+        <x:f>C54+E54+G54+I54</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:11">
+      <x:c r="A55" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F55" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G55" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J55" s="0">
+        <x:f>B55+D55+F55+H55</x:f>
+      </x:c>
+      <x:c r="K55" s="0">
+        <x:f>C55+E55+G55+I55</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:11">
+      <x:c r="A56" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F56" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G56" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J56" s="0">
+        <x:f>B56+D56+F56+H56</x:f>
+      </x:c>
+      <x:c r="K56" s="0">
+        <x:f>C56+E56+G56+I56</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:11">
+      <x:c r="A57" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="F57" s="0">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G57" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J57" s="0">
+        <x:f>B57+D57+F57+H57</x:f>
+      </x:c>
+      <x:c r="K57" s="0">
+        <x:f>C57+E57+G57+I57</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:11">
+      <x:c r="A58" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="F58" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G58" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J58" s="0">
+        <x:f>B58+D58+F58+H58</x:f>
+      </x:c>
+      <x:c r="K58" s="0">
+        <x:f>C58+E58+G58+I58</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:11">
+      <x:c r="A59" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="F59" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G59" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J59" s="0">
+        <x:f>B59+D59+F59+H59</x:f>
+      </x:c>
+      <x:c r="K59" s="0">
+        <x:f>C59+E59+G59+I59</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:11">
+      <x:c r="A60" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F60" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G60" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J60" s="0">
+        <x:f>B60+D60+F60+H60</x:f>
+      </x:c>
+      <x:c r="K60" s="0">
+        <x:f>C60+E60+G60+I60</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:11">
+      <x:c r="A61" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F61" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G61" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J61" s="0">
+        <x:f>B61+D61+F61+H61</x:f>
+      </x:c>
+      <x:c r="K61" s="0">
+        <x:f>C61+E61+G61+I61</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:11">
+      <x:c r="A62" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="F62" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G62" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J62" s="0">
+        <x:f>B62+D62+F62+H62</x:f>
+      </x:c>
+      <x:c r="K62" s="0">
+        <x:f>C62+E62+G62+I62</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:11">
+      <x:c r="A63" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F63" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G63" s="0">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J63" s="0">
+        <x:f>B63+D63+F63+H63</x:f>
+      </x:c>
+      <x:c r="K63" s="0">
+        <x:f>C63+E63+G63+I63</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:11">
+      <x:c r="A64" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F64" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G64" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J64" s="0">
+        <x:f>B64+D64+F64+H64</x:f>
+      </x:c>
+      <x:c r="K64" s="0">
+        <x:f>C64+E64+G64+I64</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:11">
+      <x:c r="A65" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F65" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G65" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J65" s="0">
+        <x:f>B65+D65+F65+H65</x:f>
+      </x:c>
+      <x:c r="K65" s="0">
+        <x:f>C65+E65+G65+I65</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:11">
+      <x:c r="A66" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F66" s="0">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="G66" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J66" s="0">
+        <x:f>B66+D66+F66+H66</x:f>
+      </x:c>
+      <x:c r="K66" s="0">
+        <x:f>C66+E66+G66+I66</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:11">
+      <x:c r="A67" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="F67" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="G67" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="J67" s="0">
+        <x:f>B67+D67+F67+H67</x:f>
+      </x:c>
+      <x:c r="K67" s="0">
+        <x:f>C67+E67+G67+I67</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:11">
+      <x:c r="A68" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F68" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="G68" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J68" s="0">
+        <x:f>B68+D68+F68+H68</x:f>
+      </x:c>
+      <x:c r="K68" s="0">
+        <x:f>C68+E68+G68+I68</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:11">
+      <x:c r="A69" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="F69" s="0">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="G69" s="0">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="J69" s="0">
+        <x:f>B69+D69+F69+H69</x:f>
+      </x:c>
+      <x:c r="K69" s="0">
+        <x:f>C69+E69+G69+I69</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:11">
+      <x:c r="A70" s="0" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F70" s="0">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G70" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="J70" s="0">
+        <x:f>B70+D70+F70+H70</x:f>
+      </x:c>
+      <x:c r="K70" s="0">
+        <x:f>C70+E70+G70+I70</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:11">
+      <x:c r="A71" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F71" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G71" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J71" s="0">
+        <x:f>B71+D71+F71+H71</x:f>
+      </x:c>
+      <x:c r="K71" s="0">
+        <x:f>C71+E71+G71+I71</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:11">
+      <x:c r="A72" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="F72" s="0">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G72" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J72" s="0">
+        <x:f>B72+D72+F72+H72</x:f>
+      </x:c>
+      <x:c r="K72" s="0">
+        <x:f>C72+E72+G72+I72</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:11">
+      <x:c r="A73" s="0" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="F73" s="0">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="G73" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J73" s="0">
+        <x:f>B73+D73+F73+H73</x:f>
+      </x:c>
+      <x:c r="K73" s="0">
+        <x:f>C73+E73+G73+I73</x:f>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:11">
+      <x:c r="A74" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F74" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G74" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J74" s="0">
+        <x:f>B74+D74+F74+H74</x:f>
+      </x:c>
+      <x:c r="K74" s="0">
+        <x:f>C74+E74+G74+I74</x:f>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="6">
+    <x:mergeCell ref="A1:A2"/>
+    <x:mergeCell ref="B1:C1"/>
+    <x:mergeCell ref="D1:E1"/>
+    <x:mergeCell ref="F1:G1"/>
+    <x:mergeCell ref="H1:I1"/>
+    <x:mergeCell ref="J1:K1"/>
+  </x:mergeCells>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>